--- a/interface/dataconfig/case1.xlsx
+++ b/interface/dataconfig/case1.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27360" windowHeight="10875" activeTab="1"/>
+    <workbookView windowWidth="27360" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="工作表3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -168,7 +169,7 @@
     <t>http://47.52.150.234:8080/api/news/get_news_detail</t>
   </si>
   <si>
-    <t>result.news_id,result.news_type</t>
+    <t>result[0].news_id,result[0].news_type</t>
   </si>
   <si>
     <t>news_id,news_type</t>
@@ -183,10 +184,7 @@
     <t>http://47.52.150.234:8080/api/action/add_favorite</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>result.news_id</t>
+    <t>result[0].news_id</t>
   </si>
   <si>
     <t>news_id</t>
@@ -248,6 +246,9 @@
   </si>
   <si>
     <t>nolike_types=1</t>
+  </si>
+  <si>
+    <t>test_013</t>
   </si>
   <si>
     <t>add</t>
@@ -409,11 +410,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -438,6 +439,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF800080"/>
@@ -446,6 +454,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -456,12 +465,125 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,98 +597,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -574,27 +604,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -605,25 +614,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,157 +788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,6 +805,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -809,16 +833,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +854,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,47 +885,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,152 +910,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1068,13 +1077,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1398,10 +1410,10 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1469,7 +1481,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -1481,8 +1493,8 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1505,10 +1517,10 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1534,7 +1546,7 @@
       <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" customFormat="1" spans="1:11">
       <c r="A5" t="s">
@@ -1558,55 +1570,55 @@
       <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:11">
-      <c r="A6" t="s">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" s="7" customFormat="1" spans="1:11">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:11">
-      <c r="A7" t="s">
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:11">
+      <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" t="s">
@@ -1636,7 +1648,7 @@
       <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" customFormat="1" spans="1:11">
       <c r="A9" t="s">
@@ -1649,7 +1661,7 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1661,149 +1673,149 @@
         <v>26</v>
       </c>
       <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
         <v>45</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" s="7" customFormat="1" ht="94.5" spans="1:11">
+      <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" customFormat="1" ht="94.5" spans="1:11">
-      <c r="A10" t="s">
+      <c r="B10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" s="7" customFormat="1" ht="94.5" spans="1:11">
+      <c r="A11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:11">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" s="7" customFormat="1" spans="1:11">
+      <c r="A13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="94.5" spans="1:11">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:11">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:11">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" customFormat="1" ht="94.5" spans="1:11">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1821,35 +1833,35 @@
         <v>39</v>
       </c>
       <c r="I14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:11">
       <c r="C16" s="3"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" customFormat="1" spans="3:11">
       <c r="C17" s="3"/>
-      <c r="K17" s="9"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" customFormat="1" spans="3:11">
       <c r="C18" s="3"/>
-      <c r="K18" s="9"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" customFormat="1" spans="3:11">
       <c r="C19" s="3"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" customFormat="1" spans="1:11">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="3"/>
@@ -1917,18 +1929,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="http://47.52.150.234:8080/api/home/login" tooltip="http://47.52.150.234:8080/api/home/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="http://47.52.150.234:8080/api/home/get_token?appid=2017001&amp;appkey=5f612s36sdsdsfqd" tooltip="http://47.52.150.234:8080/api/home/get_token?appid=2017001&amp;appkey=5f612s36sdsdsfqd"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://47.52.150.234:8080/api/news/get_channel_list"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://47.52.150.234:8080/api/news/get_channel_list" tooltip="http://47.52.150.234:8080/api/news/get_channel_list"/>
-    <hyperlink ref="C6" r:id="rId3" display="http://47.52.150.234:8080/api/news/get_channel_list"/>
-    <hyperlink ref="C7" r:id="rId3" display="http://47.52.150.234:8080/api/news/get_channel_list" tooltip="http://47.52.150.234:8080/api/news/get_channel_list"/>
-    <hyperlink ref="C8" r:id="rId4" display="http://47.52.150.234:8080/api/news/get_news_detail" tooltip="http://47.52.150.234:8080/api/news/get_news_detail"/>
-    <hyperlink ref="C9" r:id="rId5" display="http://47.52.150.234:8080/api/action/add_favorite"/>
-    <hyperlink ref="C10" r:id="rId6" display="http://47.52.150.234:8080/api/action/cancel_favorite"/>
-    <hyperlink ref="C11" r:id="rId7" display="http://47.52.150.234:8080/api/action/praise" tooltip="http://47.52.150.234:8080/api/action/praise"/>
-    <hyperlink ref="C12" r:id="rId8" display="http://47.52.150.234:8080/api/action/cancel_praise" tooltip="http://47.52.150.234:8080/api/action/cancel_praise"/>
-    <hyperlink ref="C13" r:id="rId9" display="http://47.52.150.234:8080/api/action/add_like_no" tooltip="http://47.52.150.234:8080/api/action/add_like_no"/>
-    <hyperlink ref="C14" r:id="rId7" display="http://47.52.150.234:8080/api/action/praise" tooltip="http://47.52.150.234:8080/api/action/praise"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://47.52.150.234:8080/api/news/get_channel_list"/>
+    <hyperlink ref="C5" r:id="rId2" display="http://47.52.150.234:8080/api/news/get_channel_list" tooltip="http://47.52.150.234:8080/api/news/get_channel_list"/>
+    <hyperlink ref="C6" r:id="rId2" display="http://47.52.150.234:8080/api/news/get_channel_list"/>
+    <hyperlink ref="C7" r:id="rId2" display="http://47.52.150.234:8080/api/news/get_channel_list" tooltip="http://47.52.150.234:8080/api/news/get_channel_list"/>
+    <hyperlink ref="C8" r:id="rId3" display="http://47.52.150.234:8080/api/news/get_news_detail" tooltip="http://47.52.150.234:8080/api/news/get_news_detail"/>
+    <hyperlink ref="C9" r:id="rId4" display="http://47.52.150.234:8080/api/action/add_favorite"/>
+    <hyperlink ref="C10" r:id="rId5" display="http://47.52.150.234:8080/api/action/cancel_favorite"/>
+    <hyperlink ref="C11" r:id="rId6" display="http://47.52.150.234:8080/api/action/praise" tooltip="http://47.52.150.234:8080/api/action/praise"/>
+    <hyperlink ref="C12" r:id="rId7" display="http://47.52.150.234:8080/api/action/cancel_praise" tooltip="http://47.52.150.234:8080/api/action/cancel_praise"/>
+    <hyperlink ref="C13" r:id="rId8" display="http://47.52.150.234:8080/api/action/add_like_no" tooltip="http://47.52.150.234:8080/api/action/add_like_no"/>
+    <hyperlink ref="C14" r:id="rId6" display="http://47.52.150.234:8080/api/action/praise" tooltip="http://47.52.150.234:8080/api/action/praise"/>
+    <hyperlink ref="C2" r:id="rId9" display="http://47.52.150.234:8080/api/home/get_token?appid=2017001&amp;appkey=5f612s36sdsdsfqd" tooltip="http://47.52.150.234:8080/api/home/get_token?appid=2017001&amp;appkey=5f612s36sdsdsfqd"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1940,7 +1952,7 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2000,7 +2012,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
@@ -2133,4 +2145,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/interface/dataconfig/case1.xlsx
+++ b/interface/dataconfig/case1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,9 @@
     <t>请求类型</t>
   </si>
   <si>
+    <t>Conten-Type</t>
+  </si>
+  <si>
     <t>是否带header</t>
   </si>
   <si>
@@ -54,7 +57,7 @@
     <t>实际结果</t>
   </si>
   <si>
-    <t>Conten-Type</t>
+    <t>是否通过</t>
   </si>
   <si>
     <t>test_001</t>
@@ -409,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -463,15 +466,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -484,14 +509,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,6 +554,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -513,51 +600,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -565,45 +607,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -614,103 +617,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,79 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,6 +808,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -826,23 +868,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,15 +881,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,23 +903,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,148 +913,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1408,12 +1411,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N$1:N$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1422,18 +1425,18 @@
     <col min="2" max="2" width="37.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="147.833333333333" customWidth="1"/>
     <col min="4" max="4" width="14.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="49.625" customWidth="1"/>
-    <col min="9" max="9" width="23.25" customWidth="1"/>
-    <col min="10" max="10" width="90.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="64.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="58.1666666666667" customWidth="1"/>
-    <col min="13" max="13" width="41" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="49.625" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="90.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="64.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="53" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:13">
+    <row r="1" ht="20.25" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1473,395 +1476,399 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="126" spans="1:11">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="126" spans="1:12">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" ht="409.5" spans="1:11">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="409.5" spans="1:12">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:11">
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:12">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" s="7" customFormat="1" spans="1:12">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:12">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:12">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" customFormat="1" spans="1:11">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" s="7" customFormat="1" spans="1:11">
-      <c r="A6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" s="7" customFormat="1" spans="1:11">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:11">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:11">
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:12">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" s="7" customFormat="1" ht="94.5" spans="1:11">
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" s="7" customFormat="1" ht="94.5" spans="1:12">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="1" ht="94.5" spans="1:11">
+      <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="94.5" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" s="7" customFormat="1" spans="1:11">
+      <c r="L11" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" s="7" customFormat="1" spans="1:11">
+        <v>40</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" s="7" customFormat="1" spans="1:12">
       <c r="A13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" customFormat="1" ht="94.5" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" customFormat="1" ht="94.5" spans="1:12">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="3:11">
+      <c r="L14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="3:12">
       <c r="C16" s="3"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" customFormat="1" spans="3:11">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" customFormat="1" spans="3:12">
       <c r="C17" s="3"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" customFormat="1" spans="3:11">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" customFormat="1" spans="3:12">
       <c r="C18" s="3"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" customFormat="1" spans="3:11">
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:12">
       <c r="C19" s="3"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:11">
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:12">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="E20" s="7"/>
-      <c r="J20" s="5"/>
+      <c r="F20" s="7"/>
       <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="3"/>
@@ -1986,144 +1993,144 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="2:4">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="252" spans="3:4">
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="141.75" spans="3:4">
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="94.5" spans="3:4">
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
